--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ship\doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C2C5A1-1DAA-4AFF-AA1D-48BAAA2F0C17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65643C06-D7F2-4A76-98B3-A82125428739}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="全局表" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>sheet名</t>
   </si>
@@ -220,6 +222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -229,6 +232,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>niA</t>
@@ -238,6 +242,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>utoClick</t>
@@ -249,6 +254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>初始状态下，1秒帮玩家点</t>
@@ -258,6 +264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1次</t>
@@ -290,6 +297,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0,10,</t>
@@ -299,6 +307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>30,50,60,70,80,90,100,100,120,120</t>
@@ -352,6 +361,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1元首冲</t>
@@ -361,6 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ID</t>
@@ -375,6 +386,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6元首冲</t>
@@ -384,6 +396,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ID</t>
@@ -433,6 +446,18 @@
   </si>
   <si>
     <t>#ffffff,#6de933,#3fb9ff,#ef3fff,#faa724,#ff3f71</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>numWeightDesc</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>K,M,G,B,A,AA,AB,AC,AD,AE,AF,AG</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>位数描述数组</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -453,18 +478,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -472,6 +500,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -479,6 +508,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -486,6 +516,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -494,6 +525,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -501,6 +533,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -508,16 +541,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1074,8 +1110,8 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1374,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1763,15 +1799,25 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="8">
+        <v>29</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="8">
+        <v>5</v>
+      </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ship\doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65643C06-D7F2-4A76-98B3-A82125428739}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74515C01-B4D5-498C-AD80-51C7A5D0DF18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>sheet名</t>
   </si>
@@ -271,13 +271,7 @@
     </r>
   </si>
   <si>
-    <t>missile-unlock</t>
-  </si>
-  <si>
     <t>导弹炮解锁关卡</t>
-  </si>
-  <si>
-    <t>laser-unlock</t>
   </si>
   <si>
     <t>激光炮解锁关卡</t>
@@ -439,9 +433,6 @@
     <t>被膜拜每日最高上限</t>
   </si>
   <si>
-    <t>ranklistMaxNum</t>
-  </si>
-  <si>
     <t>排行榜最大人数</t>
   </si>
   <si>
@@ -458,6 +449,26 @@
   </si>
   <si>
     <t>位数描述数组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile-unlock</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser-unlock</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranklistMaxNum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranklistRefreshTime</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜刷新时间（s）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1107,11 +1118,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1242,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>500</v>
+        <v>1425</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1305,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1326,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>1425</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1404,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1417,7 +1428,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1425,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1438,7 +1449,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1446,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1459,7 +1470,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1467,7 +1478,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
@@ -1476,11 +1487,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1488,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1501,7 +1512,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1509,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1519,10 +1530,10 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1530,7 +1541,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -1543,7 +1554,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1551,7 +1562,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1564,7 +1575,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1572,7 +1583,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1585,7 +1596,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1593,7 +1604,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1606,15 +1617,15 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -1627,15 +1638,15 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -1648,15 +1659,15 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
@@ -1669,15 +1680,15 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -1690,15 +1701,15 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -1711,15 +1722,15 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
@@ -1732,15 +1743,15 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -1753,15 +1764,15 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -1774,15 +1785,15 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -1795,28 +1806,49 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C32" s="8">
-        <v>5</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>60</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="8">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ship\doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74515C01-B4D5-498C-AD80-51C7A5D0DF18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCDD9E1-DE37-4A8F-A3CF-BD8653CD02F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCDD9E1-DE37-4A8F-A3CF-BD8653CD02F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509DD0C-BC1A-464F-84B8-53B5CEEC8D2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>1425</v>
+        <v>950</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\公用挂机\doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509DD0C-BC1A-464F-84B8-53B5CEEC8D2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7439E1CA-D3E6-4E64-AABC-EFEE5E8DE792}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>sheet名</t>
   </si>
@@ -469,6 +469,34 @@
   </si>
   <si>
     <t>排行榜刷新时间（s）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>yueka-price</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhognshenka-price</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡售价</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身卡售价</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>yueka-reward</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡每日钻石奖励</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhognshenka-reward</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1118,11 +1146,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1851,6 +1879,90 @@
         <v>93</v>
       </c>
     </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>25</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>100</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>68</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>200</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\公用挂机\doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7439E1CA-D3E6-4E64-AABC-EFEE5E8DE792}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242D88D-5090-4C66-AD41-27D61B55468B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>sheet名</t>
   </si>
@@ -345,56 +345,6 @@
   </si>
   <si>
     <t>金币兑换暴击倍数</t>
-  </si>
-  <si>
-    <t>first1charge</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1元首冲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <t>first6charge</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6元首冲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID</t>
-    </r>
   </si>
   <si>
     <t>givealikeReward</t>
@@ -1146,11 +1096,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1443,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1464,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1558,7 +1508,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>64</v>
@@ -1680,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1694,7 +1644,7 @@
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="8">
@@ -1707,7 +1657,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1715,7 +1665,7 @@
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="8">
@@ -1728,7 +1678,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1743,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="8">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1764,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="8">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1778,42 +1728,42 @@
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>85</v>
+      <c r="B29" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
       </c>
       <c r="D29" s="8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="9" t="s">
-        <v>86</v>
+      <c r="I29" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>87</v>
+      <c r="B30" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
       </c>
       <c r="D30" s="8">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="9" t="s">
-        <v>88</v>
+      <c r="I30" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1821,18 +1771,18 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <v>50</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="I31" s="8" t="s">
         <v>89</v>
       </c>
@@ -1841,63 +1791,63 @@
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>25</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
-        <v>60</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="8">
-        <v>5</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>93</v>
+      <c r="B33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>100</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
       </c>
       <c r="D34" s="6">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1905,62 +1855,20 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
       </c>
       <c r="D35" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>33</v>
-      </c>
-      <c r="B36" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>68</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>34</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6">
-        <v>200</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242D88D-5090-4C66-AD41-27D61B55468B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A756A84C-8BF0-4AE1-A410-1712C4CF95E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>sheet名</t>
   </si>
@@ -286,28 +286,6 @@
     <t>sweepingNum</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0,10,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30,50,60,70,80,90,100,100,120,120</t>
-    </r>
-  </si>
-  <si>
     <t>扫荡每次花费数值</t>
   </si>
   <si>
@@ -447,6 +425,13 @@
   </si>
   <si>
     <t>zhognshenka-reward</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10,30,50,60,70,80,90,100,100,120,120</t>
+  </si>
+  <si>
+    <t>0,10,30,50,80,80,100,100,120,120,150,150</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1096,11 +1081,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1097,7 @@
     <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1220,7 +1205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1241,7 +1226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1262,7 +1247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1283,7 +1268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1304,7 +1289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1325,7 +1310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1346,7 +1331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1367,7 +1352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1388,12 +1373,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1409,12 +1394,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1430,7 +1415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1451,7 +1436,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1465,11 +1450,14 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1477,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1490,7 +1478,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1508,10 +1496,10 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1519,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -1532,7 +1520,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1540,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1553,7 +1541,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1561,7 +1549,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1574,7 +1562,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1582,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1595,7 +1583,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1603,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -1616,7 +1604,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1624,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -1637,7 +1625,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1645,7 +1633,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
@@ -1658,7 +1646,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1666,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -1679,7 +1667,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1687,7 +1675,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -1700,7 +1688,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1708,7 +1696,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
@@ -1721,7 +1709,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1729,7 +1717,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -1742,7 +1730,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1750,7 +1738,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -1763,7 +1751,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1771,7 +1759,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
@@ -1781,10 +1769,10 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1792,7 +1780,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -1805,7 +1793,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1813,7 +1801,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -1826,7 +1814,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1834,7 +1822,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -1847,7 +1835,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1855,7 +1843,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -1868,7 +1856,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A756A84C-8BF0-4AE1-A410-1712C4CF95E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C5FD7-59E2-473E-860A-AE071DA0FFA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>sheet名</t>
   </si>
@@ -432,6 +432,22 @@
   </si>
   <si>
     <t>0,10,30,50,80,80,100,100,120,120,150,150</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDepotTimes</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>depotRecoverTime</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享视频补给站最大次数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给次数回复时间</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1081,11 +1097,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="A36:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1859,6 +1875,48 @@
         <v>99</v>
       </c>
     </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>33</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>5</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>34</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>7200</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C5FD7-59E2-473E-860A-AE071DA0FFA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC990FC-D1CD-4AE7-BCB9-FB8C7BEA60A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>sheet名</t>
   </si>
@@ -429,10 +429,6 @@
   </si>
   <si>
     <t>0,10,30,50,60,70,80,90,100,100,120,120</t>
-  </si>
-  <si>
-    <t>0,10,30,50,80,80,100,100,120,120,150,150</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>maxDepotTimes</t>
@@ -665,7 +661,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -698,6 +694,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
@@ -1099,9 +1096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="A36:I37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1466,15 +1463,13 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K16" t="s">
-        <v>101</v>
-      </c>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1880,7 +1875,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -1893,7 +1888,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1901,7 +1896,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -1914,7 +1909,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D767A89-244D-49DC-9069-354059610237}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF280A7-2626-416F-B8D5-26F7E2A2CE4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1158,9 +1158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF280A7-2626-416F-B8D5-26F7E2A2CE4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C39415-0E1B-4276-A98F-15668DBCF1A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1159,8 +1159,8 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C39415-0E1B-4276-A98F-15668DBCF1A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC412DB-84D4-4EE1-93C0-F335A8ABF8C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
   <si>
     <t>sheet名</t>
   </si>
@@ -490,6 +490,14 @@
   <si>
     <t>levelRobot.json</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepingFree</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡券的道具id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1156,11 +1164,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1972,6 +1980,27 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <v>22</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC412DB-84D4-4EE1-93C0-F335A8ABF8C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4B9F07-AC16-4FD1-ACBA-EF81BD23D306}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
+    <author>LIPENG</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -55,12 +56,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="B39" authorId="1" shapeId="0" xr:uid="{D9D8CE88-E66D-4F89-A542-367BD2F81230}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LIPENG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位，分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="1" shapeId="0" xr:uid="{17225CFA-A74F-4C83-9EB3-C74FB8D68B48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LIPENG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位，分</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
   <si>
     <t>sheet名</t>
   </si>
@@ -499,12 +548,36 @@
     <t>扫荡券的道具id</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>bossReviveTimeBeg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossReviveTimeEnd</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS复活开始时间起始</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS复活开始时间终止</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:59:59</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00:00</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +682,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -721,7 +807,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -755,6 +841,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
@@ -1164,11 +1253,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2001,6 +2090,48 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>36</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4B9F07-AC16-4FD1-ACBA-EF81BD23D306}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F5B00-FB43-4668-9BD5-80D7D43B1607}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,6 +64,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LIPENG:</t>
@@ -73,6 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,6 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LIPENG:</t>
@@ -97,6 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -109,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>sheet名</t>
   </si>
@@ -572,6 +576,22 @@
     <t>9:00:00</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>reviveTime</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS场景，玩家死后多少秒复活</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviveCost</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活花费</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -687,6 +707,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -694,6 +715,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1253,11 +1275,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2040,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -2132,6 +2154,48 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>15</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>39</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>20</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F5B00-FB43-4668-9BD5-80D7D43B1607}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B82B16-83BA-4696-9AE6-E683B0D71D53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
   <si>
     <t>sheet名</t>
   </si>
@@ -592,6 +592,26 @@
     <t>复活花费</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>wbossAwardTimes</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbossBuyCosts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,200,200,200</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS购买价格</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS免费获奖次数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -829,7 +849,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -864,6 +884,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1275,11 +1298,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2196,6 +2219,48 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>40</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>41</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="8">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B82B16-83BA-4696-9AE6-E683B0D71D53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649BE244-5FA6-419D-8E68-F443A5084E03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="136">
   <si>
     <t>sheet名</t>
   </si>
@@ -610,6 +610,14 @@
   </si>
   <si>
     <t>BOSS免费获奖次数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>petLvupItem</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物丹ID</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1298,11 +1306,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2261,6 +2269,27 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>42</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>23</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649BE244-5FA6-419D-8E68-F443A5084E03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E154C8FE-6061-45D0-BDA2-37D0953FEFA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,7 +1310,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>

--- a/Excel/global.全局.xlsx
+++ b/Excel/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E154C8FE-6061-45D0-BDA2-37D0953FEFA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD84B007-E348-4FA0-BF89-4278607D9BBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,8 +1309,8 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
